--- a/official/sampleSheets_for_DGE_and_CellChat/SampleSheet_12_output_simplified.xlsx
+++ b/official/sampleSheets_for_DGE_and_CellChat/SampleSheet_12_output_simplified.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,6 +380,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>sub.cluster.id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>path</t>
         </is>
       </c>
@@ -387,12 +392,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10_output</t>
+          <t>12_output</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>all.samples</t>
+          <t>remove_d4_LPS_SC5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -407,24 +412,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/all.samples/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
+          <t>B_cells</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/12_output/remove_d4_LPS_SC5/CC_differences/nCount_and_BCR_TCRgenes/B_cells/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10_output</t>
+          <t>12_output</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>all.samples</t>
+          <t>remove_d4_LPS_SC5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>S_G2M_G1_scores</t>
+          <t>CC_differences</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -434,19 +444,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/all.samples/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
+          <t>myeloid</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/12_output/remove_d4_LPS_SC5/CC_differences/nCount_and_BCR_TCRgenes/myeloid/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10_output</t>
+          <t>12_output</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>remove_d4_LPS</t>
+          <t>remove_d4_LPS_SC5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -461,142 +476,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>10_output</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>remove_d4_LPS_SC5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CC_differences</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nCount_and_BCR_TCRgenes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>10_output</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>remove_d4_LPS_SC5_SC11</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CC_differences</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>nCount_and_BCR_TCRgenes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5_SC11/CC_differences/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>10_output</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>remove_d4_LPS_SC5_SC11</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>S_G2M_G1_scores</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>nCount_and_BCR_TCRgenes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5_SC11/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>10_output</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>remove_d4_LPS_SC5</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>S_G2M_G1_scores</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nCount_and_BCR_TCRgenes</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS_SC5/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>10_output</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>remove_d4_LPS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>S_G2M_G1_scores</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nCount_and_BCR_TCRgenes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/10_output/remove_d4_LPS/S_G2M_G1_scores/nCount_and_BCR_TCRgenes/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
+          <t>T_cells</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/12_output/remove_d4_LPS_SC5/CC_differences/nCount_and_BCR_TCRgenes/T_cells/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
     </row>
